--- a/12_CNPMNC.xlsx
+++ b/12_CNPMNC.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguye\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D88DC10-8217-45A7-8DF0-78177695B0EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99102C2-1306-48A2-A31D-40743C60EC72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="798" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,12 +18,25 @@
     <sheet name="Product backlog" sheetId="1" r:id="rId3"/>
     <sheet name="Sprint backlog" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191028" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="95">
   <si>
     <t>I. Requirements</t>
   </si>
@@ -107,69 +120,6 @@
     <t>Trần Tấn Duy Khanh</t>
   </si>
   <si>
-    <t>đăng nhập, đăng ký, quên mật khẩu, đổi mật khẩu, hiển thị user profile, đăng xuất</t>
-  </si>
-  <si>
-    <t>Admin quản lý Category: có thể Thêm, Sửa, Xóa, Tìm kiếm, Hiển thị danh sách Category (thể loại)</t>
-  </si>
-  <si>
-    <t>Admin quản lý Drink: có thể Thêm, Sửa, Xóa, Tìm kiếm, Hiển thị danh sách Drink (đồ uống)</t>
-  </si>
-  <si>
-    <t>Admin quản lý Topping: có thể Thêm, Sửa, Xóa, Tìm kiếm, Hiển thị danh sách Topping (bán đi kèm với đồ uống)</t>
-  </si>
-  <si>
-    <t>Admin quản lý Voucher: có thể Thêm, Sửa, Xóa, Hiển thị danh sách Voucher (chương trình khuyến mại)</t>
-  </si>
-  <si>
-    <t>Admin quản lý Feedback: hiển thị danh sách phản hồi, đóng góp ý kiến của tất cả người dùng</t>
-  </si>
-  <si>
-    <t>Tính năng tìm kiếm đồ uống theo tên (nhập keyword)</t>
-  </si>
-  <si>
-    <t>Tính năng hiển thị Slide Image: những đồ uống nổi bật, cứ sau 3s tự động chuyển slide</t>
-  </si>
-  <si>
-    <t>Tính năng hiển thị đồ uống theo từng thể loại (từng Tab khác nhau): Cà phê, Trà Sữa, Sinh Tố</t>
-  </si>
-  <si>
-    <t>Hiển thị danh sách đồ uống hoàn toàn Realtime từ Database trên Firebase</t>
-  </si>
-  <si>
-    <t>Tính năng lọc đồ uống (Filter) theo các tiêu chí khác nhau: tất cả, theo đánh giá xếp hạng, giá, khuyến mại.</t>
-  </si>
-  <si>
-    <t>Hiển thị chi tiết thông tin của đồ uống (Detail): Loại đồ uống, kích thước, topping đi kèm</t>
-  </si>
-  <si>
-    <t>Tính năng Xếp hạng và đáng giá đồ uống (Rating)</t>
-  </si>
-  <si>
-    <t>Tính năng giỏ hàng: Thêm đồ uống vào giỏ hàng, chỉnh sửa số lượng trong giỏ hàng, xóa đồ uống khỏi giỏi hàng</t>
-  </si>
-  <si>
-    <t>Tính năng chọn Phương thức thanh toán, chọn Địa chỉ giao hàng, áp dụng Chương trình khuyến mại</t>
-  </si>
-  <si>
-    <t>Tính năng đặt hàng, quản lý lịch sử đặt hàng theo trạng thái: Đang xử lý, Đã hoàn thành</t>
-  </si>
-  <si>
-    <t>Tính năng theo dõi đơn hàng theo các bước: Quán nhận được đơn hàng, chuẩn bị đơn hàng, giao hàng cho khách</t>
-  </si>
-  <si>
-    <t>Tính năng xếp hạng và đánh giá quá trình giao hàng</t>
-  </si>
-  <si>
-    <t>Tính năng Feedback: gửi phản hồi, đóng góp ý kiến hoặc đánh giá ứng dụng</t>
-  </si>
-  <si>
-    <t>Hiển thị các phương thức liên hệ (contact) với nhà phát triển ứng dụng như: Facebook, Call Phone, Gmail, Skype, Zalo, Youtube</t>
-  </si>
-  <si>
-    <t>Admin quản lý Order: có thể quản lý Order (đơn đặt hàng) của tất cả người dùng theo 2 tab: ĐANG XỬ LÝ &amp; ĐÃ HOÀN THÀNH</t>
-  </si>
-  <si>
     <t>Nguyễn Duy Hải</t>
   </si>
   <si>
@@ -186,13 +136,208 @@
   </si>
   <si>
     <t>truongnguyen14092005</t>
+  </si>
+  <si>
+    <t>Xem trang chủ</t>
+  </si>
+  <si>
+    <t>Đăng ký tài khoản</t>
+  </si>
+  <si>
+    <t>Đăng nhập</t>
+  </si>
+  <si>
+    <t>Đăng xuất</t>
+  </si>
+  <si>
+    <t>Nguyễn Nhật Tuân</t>
+  </si>
+  <si>
+    <t>Tuan17072005</t>
+  </si>
+  <si>
+    <t>Product Owner</t>
+  </si>
+  <si>
+    <t>ScrumMaster</t>
+  </si>
+  <si>
+    <t>Dev</t>
+  </si>
+  <si>
+    <t>Quên mật khẩu</t>
+  </si>
+  <si>
+    <t>Đổi mật khẩu</t>
+  </si>
+  <si>
+    <t>Hiển thị thông tin người dùng (User Profile)</t>
+  </si>
+  <si>
+    <t>Actor: Admin – Category</t>
+  </si>
+  <si>
+    <t>Thêm thể loại</t>
+  </si>
+  <si>
+    <t>Sửa thể loại</t>
+  </si>
+  <si>
+    <t>Xóa thể loại</t>
+  </si>
+  <si>
+    <t>Tìm kiếm thể loại</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách thể loại</t>
+  </si>
+  <si>
+    <t>Actor: Admin – Drink</t>
+  </si>
+  <si>
+    <t>Thêm đồ uống</t>
+  </si>
+  <si>
+    <t>Sửa đồ uống</t>
+  </si>
+  <si>
+    <t>Xóa đồ uống</t>
+  </si>
+  <si>
+    <t>Tìm kiếm đồ uống</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách đồ uống</t>
+  </si>
+  <si>
+    <t>Actor: Order</t>
+  </si>
+  <si>
+    <t>Quản lý đơn hàng (Đang xử lý &amp; Đã hoàn thành)</t>
+  </si>
+  <si>
+    <t>Cập nhật trạng thái đơn hàng</t>
+  </si>
+  <si>
+    <t>Actor:Admin – Topping</t>
+  </si>
+  <si>
+    <t>Thêm Topping</t>
+  </si>
+  <si>
+    <t>Sửa Topping</t>
+  </si>
+  <si>
+    <t>Xóa Topping</t>
+  </si>
+  <si>
+    <t>Tìm kiếm Topping</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách Topping</t>
+  </si>
+  <si>
+    <t>Actor:Admin – Feedback</t>
+  </si>
+  <si>
+    <t>Actor:Admin – Voucher</t>
+  </si>
+  <si>
+    <t>Thêm voucher</t>
+  </si>
+  <si>
+    <t>Sửa voucher</t>
+  </si>
+  <si>
+    <t>Xóa voucher</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách phản hồi</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách voucher</t>
+  </si>
+  <si>
+    <t>Tìm kiếm đồ uống theo tên (nhập từ khóa)</t>
+  </si>
+  <si>
+    <t>Hiển thị slide hình ảnh (sản phẩm nổi bật, tự động đổi 3 giây)</t>
+  </si>
+  <si>
+    <t>Hiển thị đồ uống theo từng thể loại (Cà phê, Trà sữa, Sinh tố)</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách đồ uống realtime từ cơ sở dữ liệu Firebase</t>
+  </si>
+  <si>
+    <t>Lọc đồ uống theo tiêu chí (tất cả, đánh giá, giá, khuyến mãi)</t>
+  </si>
+  <si>
+    <t>Hiển thị chi tiết đồ uống (loại, kích thước, topping đi kèm)</t>
+  </si>
+  <si>
+    <t>Xếp hạng và đánh giá đồ uống</t>
+  </si>
+  <si>
+    <t>Giỏ hàng (Thêm, chỉnh sửa số lượng, xóa sản phẩm)</t>
+  </si>
+  <si>
+    <t>Chọn phương thức thanh toán</t>
+  </si>
+  <si>
+    <t>Chọn địa chỉ giao hàng</t>
+  </si>
+  <si>
+    <t>Áp dụng chương trình khuyến mãi</t>
+  </si>
+  <si>
+    <t>Đặt hàng</t>
+  </si>
+  <si>
+    <t>Quản lý lịch sử đặt hàng (Đang xử lý, Đã hoàn thành)</t>
+  </si>
+  <si>
+    <t>Theo dõi đơn hàng (Quán nhận – Chuẩn bị – Giao hàng)</t>
+  </si>
+  <si>
+    <t>Đánh giá quá trình giao hàng</t>
+  </si>
+  <si>
+    <t>Gửi phản hồi, góp ý, đánh giá ứng dụng</t>
+  </si>
+  <si>
+    <t>Hiển thị các phương thức liên hệ (Facebook, Điện thoại, Gmail, Skype, Zalo, Youtube)</t>
+  </si>
+  <si>
+    <t>Actor: LogIn/LogOut</t>
+  </si>
+  <si>
+    <t>Actor:User</t>
+  </si>
+  <si>
+    <t>Xem Danh Sách Đồ Uống</t>
+  </si>
+  <si>
+    <t>Xem Chi Tiết Đồ Uống</t>
+  </si>
+  <si>
+    <t>Tìm Kiếm Đồ Uống</t>
+  </si>
+  <si>
+    <t>Quản Lý Giỏ Hàng (Thêm, Sửa SL, Xóa)</t>
+  </si>
+  <si>
+    <t>Lọc đồ uống theo đánh giá/giá/khuyến mãi</t>
+  </si>
+  <si>
+    <t>Đăng Ký / Đăng Nhập Tài Khoản</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -227,12 +372,6 @@
       <sz val="10"/>
       <color theme="0"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF081B3A"/>
-      <name val="Segoe UI"/>
       <family val="2"/>
     </font>
     <font>
@@ -281,7 +420,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -300,15 +439,6 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top/>
       <bottom style="thin">
@@ -348,15 +478,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -456,6 +577,39 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -466,47 +620,37 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -516,23 +660,39 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -951,255 +1111,255 @@
   <dimension ref="A2:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:L19"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="29"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1215,7 +1375,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1228,114 +1388,140 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="21" t="s">
+      <c r="A3" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="17" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="A4" s="7">
         <v>1</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="9"/>
+      <c r="C4" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="16">
+        <v>45910</v>
+      </c>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
-        <v>2</v>
-      </c>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="7">
+        <v>2</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="9"/>
+      <c r="C5" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="16">
+        <v>45910</v>
+      </c>
+      <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="A6" s="7">
         <v>3</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="9"/>
+      <c r="B6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="16">
+        <v>45910</v>
+      </c>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
+      <c r="A7" s="7">
         <v>4</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="9"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="9"/>
-    </row>
-    <row r="9" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="22"/>
-    </row>
-    <row r="10" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="22"/>
+      <c r="B7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="16">
+        <v>45910</v>
+      </c>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>5</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="16">
+        <v>45910</v>
+      </c>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="18"/>
+    </row>
+    <row r="10" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1349,11 +1535,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1364,302 +1550,585 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="11"/>
+      <c r="B2" s="9"/>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="14" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
+      <c r="A4" s="8"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="10">
+        <f>SUM(C7:C28)</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="11"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="33">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="12">
+      <c r="B6" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="33">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="13"/>
-    </row>
-    <row r="6" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="26">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="34">
+        <v>2</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="34">
+        <v>2</v>
+      </c>
+      <c r="G7" s="20"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="34">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>3</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="26">
+      <c r="B8" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="34">
         <v>4</v>
       </c>
-      <c r="G7" s="24"/>
-    </row>
-    <row r="8" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>4</v>
-      </c>
-      <c r="B8" s="25" t="s">
+      <c r="B9" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="34">
+        <v>5</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="34">
+        <v>6</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="11"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="33">
+        <v>7</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="34">
+        <v>8</v>
+      </c>
+      <c r="B14" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C14" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="34">
+        <v>9</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="34">
+        <v>10</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="34">
+        <v>11</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="11"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="33">
+        <v>12</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="34">
+        <v>13</v>
+      </c>
+      <c r="B20" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="34">
+        <v>14</v>
+      </c>
+      <c r="B21" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="34">
+        <v>15</v>
+      </c>
+      <c r="B22" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="34">
+        <v>16</v>
+      </c>
+      <c r="B23" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="11"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="33">
+        <v>17</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="34">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>5</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>6</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="26">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>7</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>8</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="13"/>
-    </row>
-    <row r="14" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
-        <v>9</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
-        <v>10</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
-        <v>11</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
-        <v>12</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="26">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <v>13</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <v>14</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="13"/>
-    </row>
-    <row r="21" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <v>15</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="26">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
-        <v>16</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="26">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
-        <v>17</v>
-      </c>
-      <c r="B23" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="34">
         <v>18</v>
       </c>
-      <c r="B24" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="26">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
+      <c r="B26" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="11"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="33">
         <v>19</v>
       </c>
-      <c r="B25" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="26">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="13"/>
-    </row>
-    <row r="27" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
+      <c r="B28" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="34">
         <v>20</v>
       </c>
-      <c r="B27" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
+      <c r="B29" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="34">
         <v>21</v>
       </c>
-      <c r="B28" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="14"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="14"/>
+      <c r="B30" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="34">
+        <v>2</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="14"/>
+      <c r="A31" s="34">
+        <v>22</v>
+      </c>
+      <c r="B31" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="34">
+        <v>2</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="13"/>
+      <c r="A32" s="34">
+        <v>23</v>
+      </c>
+      <c r="B32" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="34">
+        <v>2</v>
+      </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="14"/>
+      <c r="B33" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="11"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="33">
+        <v>24</v>
+      </c>
+      <c r="B34" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="34">
+        <v>25</v>
+      </c>
+      <c r="B35" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="34">
+        <v>26</v>
+      </c>
+      <c r="B36" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="34">
+        <v>27</v>
+      </c>
+      <c r="B37" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" s="11"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="33">
+        <v>28</v>
+      </c>
+      <c r="B39" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" s="37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+      <c r="B40" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" s="11"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="33">
+        <v>29</v>
+      </c>
+      <c r="B41" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="34">
+        <v>30</v>
+      </c>
+      <c r="B42" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C42" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="34">
+        <v>31</v>
+      </c>
+      <c r="B43" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C43" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="34">
+        <v>32</v>
+      </c>
+      <c r="B44" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="C44" s="34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="34">
+        <v>33</v>
+      </c>
+      <c r="B45" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="C45" s="34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="34">
+        <v>34</v>
+      </c>
+      <c r="B46" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="C46" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="34">
+        <v>35</v>
+      </c>
+      <c r="B47" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="C47" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="34">
+        <v>36</v>
+      </c>
+      <c r="B48" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="C48" s="34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="34">
+        <v>37</v>
+      </c>
+      <c r="B49" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="C49" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="34">
+        <v>38</v>
+      </c>
+      <c r="B50" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="C50" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="34">
+        <v>39</v>
+      </c>
+      <c r="B51" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="C51" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="34">
+        <v>40</v>
+      </c>
+      <c r="B52" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="C52" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="34">
+        <v>41</v>
+      </c>
+      <c r="B53" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="C53" s="34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="34">
+        <v>42</v>
+      </c>
+      <c r="B54" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="C54" s="34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="34">
+        <v>43</v>
+      </c>
+      <c r="B55" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="C55" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="34">
+        <v>44</v>
+      </c>
+      <c r="B56" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="C56" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="34">
+        <v>45</v>
+      </c>
+      <c r="B57" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="C57" s="34">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1675,15 +2144,15 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="106.21875" customWidth="1"/>
+    <col min="2" max="2" width="52.21875" customWidth="1"/>
     <col min="3" max="3" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.77734375" customWidth="1"/>
     <col min="5" max="5" width="11.44140625" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.44140625" customWidth="1"/>
@@ -1693,234 +2162,262 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="11"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
+      <c r="B3" s="9"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="15" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="33"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="29"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="A6" s="7">
         <v>1</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="7">
+        <v>4</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="39">
+        <v>45910</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>2</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="21">
+        <v>4</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="39">
+        <v>45910</v>
+      </c>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>3</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="21">
+        <v>2</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="39">
+        <v>45910</v>
+      </c>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>4</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="21">
+        <v>4</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="9">
+      <c r="E9" s="39">
+        <v>45910</v>
+      </c>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>5</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="21">
         <v>4</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
-        <v>2</v>
-      </c>
-      <c r="B7" s="9" t="s">
+      <c r="D10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="39">
+        <v>45910</v>
+      </c>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>6</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="21">
+        <v>4</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="39">
+        <v>45910</v>
+      </c>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>7</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="21">
+        <v>2</v>
+      </c>
+      <c r="D12" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="27">
-        <v>3</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
-        <v>3</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="27">
-        <v>4</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
-        <v>4</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="27">
-        <v>6</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
-        <v>5</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="27">
-        <v>3</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
-        <v>6</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="27">
-        <v>4</v>
-      </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
-        <v>7</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="27">
-        <v>2</v>
-      </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
+      <c r="E12" s="39">
+        <v>45910</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
+      <c r="A18" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="5">
